--- a/Test Files/Research Product Table - With header on top.xlsx
+++ b/Test Files/Research Product Table - With header on top.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\WCP Research Tool WebApp\Test Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axell\WCP Project\WCP-Research-Tool-WebApp\Test Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFF936-A4DD-4E75-96C9-AEB3B53F93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DECCF5-CCE9-4EF1-8115-DC1273423927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
   <si>
     <t>Research Oem</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>zxc</t>
   </si>
 </sst>
 </file>
@@ -202,10 +205,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,33 +551,33 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -603,7 +606,7 @@
         <v>6122351235</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -614,7 +617,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -632,20 +635,20 @@
         <v>6122351236</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" t="s">
         <v>41</v>
       </c>
@@ -653,7 +656,7 @@
         <v>6122351237</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -682,654 +685,650 @@
         <v>6122351238</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="str">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="str">
         <f xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
         <v>106-S6-K6-U6</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
         <f>(20*10+ROW()-1)&amp;"-I"&amp;ROW()-1&amp;"-C"</f>
         <v>206-I6-C</v>
       </c>
-      <c r="G7" t="str">
-        <f>C7&amp;" "&amp;D7&amp;" "&amp;E7</f>
+      <c r="I7" t="str">
+        <f>B7&amp;" "&amp;C7&amp;" "&amp;D7</f>
         <v>Honda Sedan Sensor</v>
       </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
-        <f t="shared" ref="B8:B10" si="0" xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E10" si="0" xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
         <v>107-S7-K7-U7</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ref="F8:F27" si="1">(20*10+ROW()-1)&amp;"-I"&amp;ROW()-1&amp;"-C"</f>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ref="H8:H27" si="1">(20*10+ROW()-1)&amp;"-I"&amp;ROW()-1&amp;"-C"</f>
         <v>207-I7-C</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" ref="G8:G27" si="2">C8&amp;" "&amp;D8&amp;" "&amp;E8</f>
+      <c r="I8" t="str">
+        <f>B8&amp;" "&amp;C8&amp;" "&amp;D8</f>
         <v>Toyota Coupe Brakes</v>
       </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>108-S8-K8-U8</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v>208-I8-C</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
+      <c r="I9" t="str">
+        <f>B9&amp;" "&amp;C9&amp;" "&amp;D9</f>
         <v>Ford Convertible Suspension</v>
       </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>109-S9-K9-U9</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v>209-I9-C</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
+      <c r="I10" t="str">
+        <f>B10&amp;" "&amp;C10&amp;" "&amp;D10</f>
         <v>Chevrolet Hatchback Filter</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="str">
         <f xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
         <v>110-S10-K10-U10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>210-I10-C</v>
+      </c>
+      <c r="I11" t="str">
+        <f>B11&amp;" "&amp;C11&amp;" "&amp;D11</f>
+        <v>Nissan SUV Engine</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12:E27" si="2" xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
+        <v>111-S11-K11-U11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>211-I11-C</v>
+      </c>
+      <c r="I12" t="str">
+        <f>B12&amp;" "&amp;C12&amp;" "&amp;D12</f>
+        <v>Volkswagen Wagon Transmission</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>112-S12-K12-U12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>212-I12-C</v>
+      </c>
+      <c r="I13" t="str">
+        <f>B13&amp;" "&amp;C13&amp;" "&amp;D13</f>
+        <v>Honda Estate Electrical</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>113-S13-K13-U13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>213-I13-C</v>
+      </c>
+      <c r="I14" t="str">
+        <f>B14&amp;" "&amp;C14&amp;" "&amp;D14</f>
+        <v>Toyota Van Sensor</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>114-S14-K14-U14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>214-I14-C</v>
+      </c>
+      <c r="I15" t="str">
+        <f>B15&amp;" "&amp;C15&amp;" "&amp;D15</f>
+        <v>Ford Pick Up Brakes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>115-S15-K15-U15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>215-I15-C</v>
+      </c>
+      <c r="I16" t="str">
+        <f>B16&amp;" "&amp;C16&amp;" "&amp;D16</f>
+        <v>Chevrolet Muscle Suspension</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>116-S16-K16-U16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>216-I16-C</v>
+      </c>
+      <c r="I17" t="str">
+        <f>B17&amp;" "&amp;C17&amp;" "&amp;D17</f>
+        <v>Nissan Micro Filter</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>117-S17-K17-U17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>217-I17-C</v>
+      </c>
+      <c r="I18" t="str">
+        <f>B18&amp;" "&amp;C18&amp;" "&amp;D18</f>
+        <v>Volkswagen Sedan Engine</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>118-S18-K18-U18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>218-I18-C</v>
+      </c>
+      <c r="I19" t="str">
+        <f>B19&amp;" "&amp;C19&amp;" "&amp;D19</f>
+        <v>Honda Coupe Transmission</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>119-S19-K19-U19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>219-I19-C</v>
+      </c>
+      <c r="I20" t="str">
+        <f>B20&amp;" "&amp;C20&amp;" "&amp;D20</f>
+        <v>Toyota Convertible Electrical</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>120-S20-K20-U20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>220-I20-C</v>
+      </c>
+      <c r="I21" t="str">
+        <f>B21&amp;" "&amp;C21&amp;" "&amp;D21</f>
+        <v>Ford Hatchback Sensor</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>121-S21-K21-U21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>221-I21-C</v>
+      </c>
+      <c r="I22" t="str">
+        <f>B22&amp;" "&amp;C22&amp;" "&amp;D22</f>
+        <v>Chevrolet SUV Brakes</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>122-S22-K22-U22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>222-I22-C</v>
+      </c>
+      <c r="I23" t="str">
+        <f>B23&amp;" "&amp;C23&amp;" "&amp;D23</f>
+        <v>Nissan Wagon Suspension</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>123-S23-K23-U23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>223-I23-C</v>
+      </c>
+      <c r="I24" t="str">
+        <f>B24&amp;" "&amp;C24&amp;" "&amp;D24</f>
+        <v>Volkswagen Estate Filter</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>210-I10-C</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>Nissan SUV Engine</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" ref="B12:B27" si="3" xml:space="preserve"> (10*10+ROW()-1)&amp;"-S"&amp;ROW()-1&amp;"-K"&amp;ROW()-1&amp;"-U"&amp;ROW()-1</f>
-        <v>111-S11-K11-U11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>124-S24-K24-U24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>224-I24-C</v>
+      </c>
+      <c r="I25" t="str">
+        <f>B25&amp;" "&amp;C25&amp;" "&amp;D25</f>
+        <v>Honda Van Engine</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>211-I11-C</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>Volkswagen Wagon Transmission</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" si="3"/>
-        <v>112-S12-K12-U12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>125-S25-K25-U25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>225-I25-C</v>
+      </c>
+      <c r="I26" t="str">
+        <f>B26&amp;" "&amp;C26&amp;" "&amp;D26</f>
+        <v>Toyota Pick Up Transmission</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>212-I12-C</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>Honda Estate Electrical</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" si="3"/>
-        <v>113-S13-K13-U13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>213-I13-C</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>Toyota Van Sensor</v>
-      </c>
-      <c r="H14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" si="3"/>
-        <v>114-S14-K14-U14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>214-I14-C</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>Ford Pick Up Brakes</v>
-      </c>
-      <c r="H15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f t="shared" si="3"/>
-        <v>115-S15-K15-U15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>215-I15-C</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>Chevrolet Muscle Suspension</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f t="shared" si="3"/>
-        <v>116-S16-K16-U16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>216-I16-C</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>Nissan Micro Filter</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" si="3"/>
-        <v>117-S17-K17-U17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>217-I17-C</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="2"/>
-        <v>Volkswagen Sedan Engine</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f t="shared" si="3"/>
-        <v>118-S18-K18-U18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>218-I18-C</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>Honda Coupe Transmission</v>
-      </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f t="shared" si="3"/>
-        <v>119-S19-K19-U19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>219-I19-C</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>Toyota Convertible Electrical</v>
-      </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f t="shared" si="3"/>
-        <v>120-S20-K20-U20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>220-I20-C</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>Ford Hatchback Sensor</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" si="3"/>
-        <v>121-S21-K21-U21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>221-I21-C</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>Chevrolet SUV Brakes</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
-        <f t="shared" si="3"/>
-        <v>122-S22-K22-U22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>222-I22-C</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>Nissan Wagon Suspension</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
-        <f t="shared" si="3"/>
-        <v>123-S23-K23-U23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>223-I23-C</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>Volkswagen Estate Filter</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <f t="shared" si="3"/>
-        <v>124-S24-K24-U24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>224-I24-C</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>Honda Van Engine</v>
-      </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f t="shared" si="3"/>
-        <v>125-S25-K25-U25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>225-I25-C</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>Toyota Pick Up Transmission</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f t="shared" si="3"/>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
         <v>126-S26-K26-U26</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="1"/>
         <v>226-I26-C</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
+      <c r="I27" t="str">
+        <f>B27&amp;" "&amp;C27&amp;" "&amp;D27</f>
         <v>Ford Muscle Electrical</v>
       </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="G6"/>
     <mergeCell ref="H6"/>
     <mergeCell ref="I6"/>
-    <mergeCell ref="B6"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="D6"/>
-    <mergeCell ref="E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
